--- a/public/frontend/files/xample_file.xlsx
+++ b/public/frontend/files/xample_file.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/trainheartnet/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/DATA/MAMP/khoahoc/public/frontend/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F457E4D-BFB9-1A40-98C2-DCC0AEDE2D19}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C1BD7E8-094D-564C-885E-902BE28BF506}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="39400" yWindow="500" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="18800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>094553559</t>
   </si>
@@ -73,6 +73,9 @@
   </si>
   <si>
     <t>31/05/1990</t>
+  </si>
+  <si>
+    <t>Người quản lý (ID)</t>
   </si>
 </sst>
 </file>
@@ -251,29 +254,29 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -590,10 +593,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -602,44 +605,47 @@
     <col min="2" max="2" width="23" style="6" customWidth="1"/>
     <col min="3" max="3" width="21.33203125" style="4" customWidth="1"/>
     <col min="4" max="4" width="20.33203125" style="4" customWidth="1"/>
-    <col min="5" max="6" width="28.5" style="4" customWidth="1"/>
-    <col min="7" max="7" width="32.1640625" style="5" customWidth="1"/>
-    <col min="8" max="8" width="22.6640625" style="3" customWidth="1"/>
-    <col min="9" max="16384" width="10.83203125" style="3"/>
+    <col min="5" max="7" width="28.5" style="4" customWidth="1"/>
+    <col min="8" max="8" width="32.1640625" style="5" customWidth="1"/>
+    <col min="9" max="9" width="22.6640625" style="3" customWidth="1"/>
+    <col min="10" max="16384" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="12"/>
-    </row>
-    <row r="2" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="15" t="s">
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="14"/>
+    </row>
+    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="16"/>
-    </row>
-    <row r="3" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="13"/>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="14"/>
-    </row>
-    <row r="4" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="18"/>
+    </row>
+    <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="15"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="16"/>
+    </row>
+    <row r="4" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
         <v>1</v>
       </c>
@@ -661,12 +667,15 @@
       <c r="G4" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="H4" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="12" t="s">
         <v>11</v>
       </c>
       <c r="C5" s="4" t="s">
@@ -684,117 +693,135 @@
       <c r="G5" s="10" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H5" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="7"/>
-      <c r="B6" s="17"/>
+      <c r="B6" s="11"/>
       <c r="E6" s="9"/>
       <c r="F6" s="9"/>
-      <c r="G6" s="10"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G6" s="9"/>
+      <c r="H6" s="10"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="7"/>
-      <c r="B7" s="17"/>
+      <c r="B7" s="11"/>
       <c r="E7" s="9"/>
       <c r="F7" s="9"/>
-      <c r="G7" s="10"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G7" s="9"/>
+      <c r="H7" s="10"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="7"/>
-      <c r="B8" s="17"/>
+      <c r="B8" s="11"/>
       <c r="E8" s="9"/>
       <c r="F8" s="9"/>
-      <c r="G8" s="10"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G8" s="9"/>
+      <c r="H8" s="10"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="7"/>
-      <c r="B9" s="17"/>
+      <c r="B9" s="11"/>
       <c r="E9" s="9"/>
       <c r="F9" s="9"/>
-      <c r="G9" s="10"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G9" s="9"/>
+      <c r="H9" s="10"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="7"/>
-      <c r="B10" s="17"/>
+      <c r="B10" s="11"/>
       <c r="E10" s="9"/>
       <c r="F10" s="9"/>
-      <c r="G10" s="10"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G10" s="9"/>
+      <c r="H10" s="10"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="7"/>
-      <c r="B11" s="17"/>
+      <c r="B11" s="11"/>
       <c r="E11" s="9"/>
       <c r="F11" s="9"/>
-      <c r="G11" s="10"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G11" s="9"/>
+      <c r="H11" s="10"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="7"/>
-      <c r="B12" s="17"/>
+      <c r="B12" s="11"/>
       <c r="E12" s="9"/>
       <c r="F12" s="9"/>
-      <c r="G12" s="10"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G12" s="9"/>
+      <c r="H12" s="10"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="7"/>
-      <c r="B13" s="17"/>
+      <c r="B13" s="11"/>
       <c r="E13" s="9"/>
       <c r="F13" s="9"/>
-      <c r="G13" s="10"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G13" s="9"/>
+      <c r="H13" s="10"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="7"/>
-      <c r="B14" s="17"/>
+      <c r="B14" s="11"/>
       <c r="E14" s="9"/>
       <c r="F14" s="9"/>
-      <c r="G14" s="10"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G14" s="9"/>
+      <c r="H14" s="10"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="7"/>
-      <c r="B15" s="17"/>
+      <c r="B15" s="11"/>
       <c r="E15" s="9"/>
       <c r="F15" s="9"/>
-      <c r="G15" s="10"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G15" s="9"/>
+      <c r="H15" s="10"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="7"/>
-      <c r="B16" s="17"/>
+      <c r="B16" s="11"/>
       <c r="E16" s="9"/>
       <c r="F16" s="9"/>
-      <c r="G16" s="10"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G16" s="9"/>
+      <c r="H16" s="10"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="7"/>
-      <c r="B17" s="17"/>
+      <c r="B17" s="11"/>
       <c r="E17" s="9"/>
       <c r="F17" s="9"/>
-      <c r="G17" s="10"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G17" s="9"/>
+      <c r="H17" s="10"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="7"/>
-      <c r="B18" s="17"/>
+      <c r="B18" s="11"/>
       <c r="E18" s="9"/>
       <c r="F18" s="9"/>
-      <c r="G18" s="10"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G18" s="9"/>
+      <c r="H18" s="10"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="7"/>
-      <c r="B19" s="17"/>
+      <c r="B19" s="11"/>
       <c r="E19" s="9"/>
       <c r="F19" s="9"/>
-      <c r="G19" s="10"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G19" s="9"/>
+      <c r="H19" s="10"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="7"/>
-      <c r="B20" s="17"/>
+      <c r="B20" s="11"/>
       <c r="E20" s="9"/>
       <c r="F20" s="9"/>
-      <c r="G20" s="10"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A3:G3"/>
-    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A2:H2"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
